--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
-    <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="학생정보 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="422">
   <si>
     <t>국어국문</t>
   </si>
@@ -1304,6 +1305,47 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1645,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1703,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1680,8 +1722,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1696,13 +1741,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1722,8 +1771,12 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1738,13 +1791,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1759,13 +1816,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1785,8 +1846,12 @@
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1801,13 +1866,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1827,8 +1896,12 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1843,13 +1916,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1869,8 +1946,12 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1885,13 +1966,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1906,13 +1991,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1932,8 +2021,12 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1953,8 +2046,12 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1969,13 +2066,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1990,13 +2091,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2011,13 +2116,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2032,13 +2141,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2053,13 +2166,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2079,8 +2196,12 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2095,13 +2216,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2116,13 +2241,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2137,13 +2266,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2158,13 +2291,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2179,13 +2316,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2200,13 +2341,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2221,13 +2366,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2242,13 +2391,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2263,13 +2416,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2284,13 +2441,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2310,8 +2471,12 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2326,13 +2491,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2347,13 +2516,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2368,13 +2541,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2394,8 +2571,12 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2415,8 +2596,12 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2431,13 +2616,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2457,8 +2646,12 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2478,8 +2671,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2494,13 +2691,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2515,13 +2716,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2541,8 +2746,12 @@
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2557,13 +2766,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2578,13 +2791,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2599,13 +2816,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2620,13 +2841,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2641,13 +2866,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2662,13 +2891,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2683,13 +2916,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2709,8 +2946,12 @@
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2730,8 +2971,12 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2751,8 +2996,12 @@
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2772,8 +3021,12 @@
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2788,13 +3041,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2809,13 +3066,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2835,8 +3096,12 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2851,13 +3116,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2877,8 +3146,12 @@
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2893,13 +3166,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2914,13 +3191,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2935,13 +3216,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2956,13 +3241,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2977,13 +3266,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -2998,13 +3291,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3019,13 +3316,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3040,13 +3341,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3061,13 +3366,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3082,13 +3391,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3103,13 +3416,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3129,8 +3446,12 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3145,13 +3466,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3166,13 +3491,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3192,8 +3521,12 @@
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3213,8 +3546,12 @@
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3229,13 +3566,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3255,8 +3596,12 @@
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3271,13 +3616,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3292,13 +3641,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3313,13 +3666,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3334,13 +3691,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3355,13 +3716,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3381,8 +3746,12 @@
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3397,13 +3766,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3418,13 +3791,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3439,13 +3816,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3460,13 +3841,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3481,13 +3866,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3507,8 +3896,12 @@
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3523,13 +3916,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3544,13 +3941,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3570,8 +3971,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3591,8 +3996,12 @@
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3607,13 +4016,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3628,13 +4041,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3649,13 +4066,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3670,13 +4091,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3691,13 +4116,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,13 +4141,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3733,13 +4166,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3754,13 +4191,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,10 +4216,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3789,6 +4234,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3835,14 +4340,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6668-1010</v>
+        <v>010-6058-8558</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,14 +4362,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3286-5759</v>
+        <v>010-3918-1315</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3879,14 +4384,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3456-6111</v>
+        <v>010-9959-8503</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3901,14 +4406,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4269-4287</v>
+        <v>010-6140-4606</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3923,14 +4428,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1250-4406</v>
+        <v>010-5928-9942</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3945,14 +4450,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2770-4773</v>
+        <v>010-8171-9506</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,14 +4472,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4688-4365</v>
+        <v>010-9660-9319</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3989,14 +4494,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6278-7768</v>
+        <v>010-9179-5069</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4011,7 +4516,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5229-8750</v>
+        <v>010-5404-9432</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
@@ -4033,14 +4538,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1146-6914</v>
+        <v>010-2084-7552</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4055,14 +4560,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2017-3489</v>
+        <v>010-2782-7185</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4077,7 +4582,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4497-2908</v>
+        <v>010-9046-3139</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
@@ -4099,14 +4604,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6315-1093</v>
+        <v>010-0452-8750</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4121,14 +4626,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6375-2883</v>
+        <v>010-0818-3922</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4143,7 +4648,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3179-3029</v>
+        <v>010-5703-6585</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
@@ -4165,14 +4670,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6074-7493</v>
+        <v>010-5917-7727</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4187,14 +4692,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2433-4643</v>
+        <v>010-3754-5435</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4209,14 +4714,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9817-2889</v>
+        <v>010-8860-2111</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4231,14 +4736,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4107-3448</v>
+        <v>010-2027-4273</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4253,14 +4758,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6083-5294</v>
+        <v>010-9389-5393</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4275,7 +4780,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9251-6438</v>
+        <v>010-3567-1809</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4297,14 +4802,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0137-7633</v>
+        <v>010-9624-7361</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4319,14 +4824,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8309-5182</v>
+        <v>010-4851-7704</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4341,14 +4846,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7664-7424</v>
+        <v>010-4677-3865</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4363,14 +4868,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4141-5813</v>
+        <v>010-4978-6615</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4385,14 +4890,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0284-2424</v>
+        <v>010-9374-0950</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4407,14 +4912,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7622-2215</v>
+        <v>010-2940-8003</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4429,14 +4934,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9156-0022</v>
+        <v>010-3785-1444</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4451,14 +4956,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8661-7194</v>
+        <v>010-3687-4784</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4473,14 +4978,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7504-4777</v>
+        <v>010-1470-6650</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4495,14 +5000,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3399-3131</v>
+        <v>010-0444-6453</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4517,14 +5022,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2665-6815</v>
+        <v>010-3885-6682</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4539,14 +5044,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1243-6371</v>
+        <v>010-8587-0850</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4561,14 +5066,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6706-9313</v>
+        <v>010-1495-2732</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4583,14 +5088,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4645-1419</v>
+        <v>010-5524-6064</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4605,14 +5110,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5057-0713</v>
+        <v>010-4159-3879</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4627,14 +5132,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2633-1496</v>
+        <v>010-5592-3964</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4649,14 +5154,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1731-3327</v>
+        <v>010-5490-1995</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4671,14 +5176,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5393-8276</v>
+        <v>010-3702-7915</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4693,7 +5198,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3835-0339</v>
+        <v>010-2718-2552</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4715,7 +5220,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2335-8470</v>
+        <v>010-5410-2697</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
@@ -4737,14 +5242,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9744-5888</v>
+        <v>010-4612-5253</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4759,14 +5264,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1615-4311</v>
+        <v>010-3945-9005</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4781,7 +5286,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0267-2746</v>
+        <v>010-0561-0828</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
@@ -4803,14 +5308,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2115-1827</v>
+        <v>010-3301-0384</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4825,14 +5330,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7764-6519</v>
+        <v>010-2573-2383</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4847,7 +5352,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0711-4199</v>
+        <v>010-7348-6897</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
@@ -4869,7 +5374,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1228-5201</v>
+        <v>010-1732-1429</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
@@ -4891,14 +5396,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1381-2673</v>
+        <v>010-8876-2115</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4913,14 +5418,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1077-3778</v>
+        <v>010-8366-9435</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4935,14 +5440,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0757-7525</v>
+        <v>010-3662-7257</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4957,7 +5462,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3606-0869</v>
+        <v>010-7183-9840</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
@@ -4979,14 +5484,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1574-6159</v>
+        <v>010-1568-3589</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5001,14 +5506,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1975-2664</v>
+        <v>010-5067-5172</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5023,14 +5528,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5525-2931</v>
+        <v>010-0724-1002</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5045,7 +5550,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3073-0274</v>
+        <v>010-6549-1137</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -5067,14 +5572,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8961-0918</v>
+        <v>010-3176-3952</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5089,14 +5594,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6681-8508</v>
+        <v>010-8416-0920</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5111,14 +5616,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9454-3778</v>
+        <v>010-9244-1137</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5133,7 +5638,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1292-1666</v>
+        <v>010-5398-0989</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5155,14 +5660,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5875-3164</v>
+        <v>010-9109-4206</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5177,14 +5682,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2152-4770</v>
+        <v>010-8638-4385</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5199,14 +5704,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5835-2549</v>
+        <v>010-5892-1800</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5221,14 +5726,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2513-9981</v>
+        <v>010-2081-3111</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5243,14 +5748,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7349-4014</v>
+        <v>010-7080-7568</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5265,14 +5770,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-4213-3516</v>
+        <v>010-6111-2651</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5287,14 +5792,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3845-1966</v>
+        <v>010-5473-8057</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5309,14 +5814,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1350-6969</v>
+        <v>010-7514-8834</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5331,14 +5836,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4515-3703</v>
+        <v>010-6456-7328</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5353,14 +5858,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8262-8309</v>
+        <v>010-6509-9003</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5375,14 +5880,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8891-4039</v>
+        <v>010-4141-8692</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5397,14 +5902,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3299-2163</v>
+        <v>010-9728-5429</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5419,14 +5924,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7048-6207</v>
+        <v>010-5772-8590</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5441,14 +5946,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1017-2485</v>
+        <v>010-1024-5574</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5463,14 +5968,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6412-4475</v>
+        <v>010-2227-0088</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5485,7 +5990,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9264-2625</v>
+        <v>010-3623-6478</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
@@ -5507,14 +6012,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4280-9937</v>
+        <v>010-4269-1177</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5529,14 +6034,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3756-8082</v>
+        <v>010-9988-1487</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5551,14 +6056,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5669-9803</v>
+        <v>010-7519-0880</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5573,7 +6078,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6147-1220</v>
+        <v>010-1099-2925</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -5595,14 +6100,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8661-9920</v>
+        <v>010-0388-7522</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5617,14 +6122,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7886-5363</v>
+        <v>010-4913-0047</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5639,14 +6144,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1760-4482</v>
+        <v>010-5487-8594</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5661,7 +6166,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2891-2540</v>
+        <v>010-2439-6975</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -5683,14 +6188,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3595-1029</v>
+        <v>010-2453-2246</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5705,14 +6210,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2872-0852</v>
+        <v>010-8170-6710</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5727,14 +6232,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3006-6440</v>
+        <v>010-7327-5020</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5749,14 +6254,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0954-3758</v>
+        <v>010-7732-1108</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5771,14 +6276,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0267-0270</v>
+        <v>010-1069-2486</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5793,14 +6298,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3399-8554</v>
+        <v>010-5386-7450</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5815,14 +6320,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0652-8677</v>
+        <v>010-7869-6948</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5837,7 +6342,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2324-3905</v>
+        <v>010-0446-0659</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
@@ -5859,14 +6364,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8209-8430</v>
+        <v>010-4139-6587</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5881,14 +6386,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4023-9862</v>
+        <v>010-9685-1481</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5903,7 +6408,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8078-4723</v>
+        <v>010-8579-5184</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -5925,14 +6430,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5788-0926</v>
+        <v>010-4122-4075</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5947,7 +6452,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2310-5046</v>
+        <v>010-2195-4768</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -5969,7 +6474,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3853-4483</v>
+        <v>010-3857-5107</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -5991,7 +6496,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6931-3725</v>
+        <v>010-8068-3792</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
@@ -6013,14 +6518,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0901-9454</v>
+        <v>010-0497-7919</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6033,370 +6538,2547 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B44"/>
+    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
         <v>99</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
         <v>87</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
         <v>83</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
-      <c r="B44" t="s">
-        <v>39</v>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>54</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>76</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="학과정보" sheetId="5" r:id="rId2"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId3"/>
     <sheet name="학생성적정보" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="448">
   <si>
     <t>국어국문</t>
   </si>
@@ -1328,24 +1328,101 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
     <t>학과코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>학과명</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+  </si>
+  <si>
+    <t>학과장</t>
+  </si>
+  <si>
+    <t>연락처</t>
+  </si>
+  <si>
+    <t>위치</t>
+  </si>
+  <si>
     <t>D001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>조용필</t>
+  </si>
+  <si>
+    <t>062-747-8849</t>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>이몽룡</t>
+  </si>
+  <si>
+    <t>남진</t>
+  </si>
+  <si>
+    <t>062-942-7609</t>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>성춘향</t>
+  </si>
+  <si>
+    <t>태진아</t>
+  </si>
+  <si>
+    <t>062-858-7544</t>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>임꺽정</t>
+  </si>
+  <si>
+    <t>나훈아</t>
+  </si>
+  <si>
+    <t>062-622-8131</t>
+  </si>
+  <si>
+    <t>별관 3-2</t>
   </si>
   <si>
     <t>D005</t>
   </si>
   <si>
-    <t>D003</t>
+    <t>장영실</t>
+  </si>
+  <si>
+    <t>김호중</t>
+  </si>
+  <si>
+    <t>062-353-6972</t>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+  </si>
+  <si>
+    <t>조교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1689,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1800,7 @@
         <v>410</v>
       </c>
       <c r="G1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1741,13 +1818,13 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F2,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1766,14 +1843,14 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G3" t="e">
+        <f>VLOOKUP(F3,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1791,13 +1868,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F4,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1822,7 +1899,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F5,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1847,7 +1924,7 @@
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F6,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1866,13 +1943,13 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F7,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1891,13 +1968,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F8,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1916,13 +1993,13 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F9,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1941,14 +2018,14 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G10" t="e">
+        <f>VLOOKUP(F10,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1971,9 +2048,9 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G11" t="e">
+        <f>VLOOKUP(F11,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1991,14 +2068,14 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G12" t="e">
+        <f>VLOOKUP(F12,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,13 +2093,13 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F13,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2047,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F14,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2066,13 +2143,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F15,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2091,13 +2168,13 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F16,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2116,13 +2193,13 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F17,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2141,13 +2218,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F18,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2166,14 +2243,14 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G19" t="e">
+        <f>VLOOKUP(F19,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2191,14 +2268,14 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G20" t="e">
+        <f>VLOOKUP(F20,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2221,9 +2298,9 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G21" t="e">
+        <f>VLOOKUP(F21,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,13 +2318,13 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F22,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2272,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F23,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2291,13 +2368,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F24,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2322,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F25,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2341,13 +2418,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F26,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2366,13 +2443,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F27,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2397,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F28,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2416,13 +2493,13 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F29,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2447,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F30,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2466,13 +2543,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F31,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2491,13 +2568,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F32,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2516,14 +2593,14 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G33" t="e">
+        <f>VLOOKUP(F33,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2541,13 +2618,13 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F34,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2566,13 +2643,13 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F35,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2596,9 +2673,9 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G36" t="e">
+        <f>VLOOKUP(F36,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2616,13 +2693,13 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F37,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2641,13 +2718,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F38,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2666,13 +2743,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F39,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2691,13 +2768,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F40,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2716,13 +2793,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F41,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2741,14 +2818,14 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G42" t="e">
+        <f>VLOOKUP(F42,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2766,13 +2843,13 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F43,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2797,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F44,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2816,14 +2893,14 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G45" t="e">
+        <f>VLOOKUP(F45,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2847,7 +2924,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F46,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2866,13 +2943,13 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F47,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2891,13 +2968,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F48,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2916,13 +2993,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F49,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2941,13 +3018,13 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F50,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2966,14 +3043,14 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G51" t="e">
+        <f>VLOOKUP(F51,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2991,13 +3068,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F52,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3021,9 +3098,9 @@
       <c r="F53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G53" t="e">
+        <f>VLOOKUP(F53,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3041,13 +3118,13 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F54,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3071,9 +3148,9 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G55" t="e">
+        <f>VLOOKUP(F55,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3096,9 +3173,9 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G56" t="e">
+        <f>VLOOKUP(F56,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3116,13 +3193,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F57,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3141,13 +3218,13 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F58,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3172,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F59,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3191,13 +3268,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F60,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3222,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F61,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3241,13 +3318,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F62,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3266,13 +3343,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F63,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3291,13 +3368,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F64,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3322,7 +3399,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F65,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3341,13 +3418,13 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F66,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3366,13 +3443,13 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F67,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3391,14 +3468,14 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-      <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G68" t="e">
+        <f>VLOOKUP(F68,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3416,13 +3493,13 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F69,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3446,9 +3523,9 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G70" t="e">
+        <f>VLOOKUP(F70,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3466,13 +3543,13 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F71,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3491,13 +3568,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F72,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3516,13 +3593,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F73,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3541,13 +3618,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F74,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3566,13 +3643,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F75,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3591,13 +3668,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F76,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3616,13 +3693,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F77,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3647,7 +3724,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F78,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3666,13 +3743,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F79,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3691,13 +3768,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F80,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3722,7 +3799,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F81,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3741,13 +3818,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F82,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3772,7 +3849,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F83,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3791,13 +3868,13 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F84,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3816,13 +3893,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F85,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3847,7 +3924,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F86,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3872,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F87,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3891,13 +3968,13 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F88,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3916,13 +3993,13 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F89,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3941,13 +4018,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F90,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3966,14 +4043,14 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-      <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G91" t="e">
+        <f>VLOOKUP(F91,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3991,13 +4068,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F92,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4016,14 +4093,14 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-      <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G93" t="e">
+        <f>VLOOKUP(F93,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4041,14 +4118,14 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G94" t="e">
+        <f>VLOOKUP(F94,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4066,14 +4143,14 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G95" t="e">
+        <f>VLOOKUP(F95,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4091,13 +4168,13 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F96,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4116,13 +4193,13 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F97,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4146,9 +4223,9 @@
       <c r="F98" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G98" t="e">
+        <f>VLOOKUP(F98,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4171,9 +4248,9 @@
       <c r="F99" t="s">
         <v>10</v>
       </c>
-      <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2,FALSE)</f>
-        <v>D005</v>
+      <c r="G99" t="e">
+        <f>VLOOKUP(F99,학과정보!$A$1:$B$5,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,13 +4268,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F100,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4222,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2,FALSE)</f>
+        <f>VLOOKUP(F101,학과정보!$A$1:$B$5,2,FALSE)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4235,52 +4312,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>420</v>
+      <c r="B6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4340,14 +4497,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6058-8558</v>
+        <v>010-3385-9535</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4362,7 +4519,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3918-1315</v>
+        <v>010-4497-5053</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
@@ -4384,14 +4541,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9959-8503</v>
+        <v>010-9973-0359</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4406,14 +4563,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6140-4606</v>
+        <v>010-9889-5495</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4428,14 +4585,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5928-9942</v>
+        <v>010-7661-9048</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4450,14 +4607,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8171-9506</v>
+        <v>010-8453-5914</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4472,14 +4629,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9660-9319</v>
+        <v>010-1261-2931</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4494,7 +4651,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9179-5069</v>
+        <v>010-5846-0624</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4516,14 +4673,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5404-9432</v>
+        <v>010-0115-0832</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4538,14 +4695,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2084-7552</v>
+        <v>010-2346-9881</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4560,14 +4717,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2782-7185</v>
+        <v>010-8537-3147</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4582,14 +4739,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9046-3139</v>
+        <v>010-5606-3701</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4604,14 +4761,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0452-8750</v>
+        <v>010-4876-2893</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4626,14 +4783,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0818-3922</v>
+        <v>010-0422-4715</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4648,7 +4805,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5703-6585</v>
+        <v>010-3769-7151</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
@@ -4670,14 +4827,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5917-7727</v>
+        <v>010-0554-5572</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4692,14 +4849,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3754-5435</v>
+        <v>010-4462-1678</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4714,14 +4871,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8860-2111</v>
+        <v>010-0383-8736</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4736,14 +4893,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2027-4273</v>
+        <v>010-4992-4438</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4758,14 +4915,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9389-5393</v>
+        <v>010-9458-9463</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4780,7 +4937,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3567-1809</v>
+        <v>010-0388-8851</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4802,14 +4959,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9624-7361</v>
+        <v>010-2277-6100</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4824,14 +4981,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4851-7704</v>
+        <v>010-5948-5998</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4846,14 +5003,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4677-3865</v>
+        <v>010-9576-6681</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4868,7 +5025,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4978-6615</v>
+        <v>010-1718-0697</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
@@ -4890,14 +5047,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9374-0950</v>
+        <v>010-4848-8402</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4912,14 +5069,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2940-8003</v>
+        <v>010-5227-2127</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4934,7 +5091,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3785-1444</v>
+        <v>010-3339-9063</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
@@ -4956,14 +5113,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3687-4784</v>
+        <v>010-4131-0491</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4978,14 +5135,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1470-6650</v>
+        <v>010-2314-7680</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -5000,7 +5157,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0444-6453</v>
+        <v>010-4563-7234</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
@@ -5022,14 +5179,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3885-6682</v>
+        <v>010-8252-1030</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5044,7 +5201,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8587-0850</v>
+        <v>010-0696-0772</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -5066,14 +5223,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1495-2732</v>
+        <v>010-1853-5288</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5088,14 +5245,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5524-6064</v>
+        <v>010-8745-5621</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5110,14 +5267,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4159-3879</v>
+        <v>010-0816-8630</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5132,14 +5289,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5592-3964</v>
+        <v>010-9235-5318</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5154,14 +5311,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5490-1995</v>
+        <v>010-3242-5120</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -5176,14 +5333,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3702-7915</v>
+        <v>010-4447-5696</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5198,14 +5355,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2718-2552</v>
+        <v>010-9681-9810</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5220,14 +5377,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5410-2697</v>
+        <v>010-4805-6082</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5242,14 +5399,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4612-5253</v>
+        <v>010-8551-8596</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5264,14 +5421,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3945-9005</v>
+        <v>010-3659-1559</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5286,14 +5443,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0561-0828</v>
+        <v>010-5325-7938</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5308,7 +5465,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3301-0384</v>
+        <v>010-9845-3851</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
@@ -5330,14 +5487,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2573-2383</v>
+        <v>010-2794-7154</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5352,14 +5509,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7348-6897</v>
+        <v>010-8040-0770</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5374,7 +5531,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1732-1429</v>
+        <v>010-3949-0020</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
@@ -5396,14 +5553,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8876-2115</v>
+        <v>010-1494-2420</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5418,14 +5575,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8366-9435</v>
+        <v>010-2856-3346</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5440,14 +5597,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3662-7257</v>
+        <v>010-7926-7421</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5462,14 +5619,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7183-9840</v>
+        <v>010-4834-7146</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5484,14 +5641,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1568-3589</v>
+        <v>010-0937-9887</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5506,14 +5663,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5067-5172</v>
+        <v>010-9341-1612</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5528,7 +5685,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0724-1002</v>
+        <v>010-4804-0885</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5550,14 +5707,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6549-1137</v>
+        <v>010-4587-3078</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5572,14 +5729,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3176-3952</v>
+        <v>010-9077-7495</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5594,14 +5751,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8416-0920</v>
+        <v>010-7380-3913</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5616,14 +5773,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9244-1137</v>
+        <v>010-8513-6640</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5638,14 +5795,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5398-0989</v>
+        <v>010-7372-3828</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5660,14 +5817,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9109-4206</v>
+        <v>010-8195-2661</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5682,14 +5839,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8638-4385</v>
+        <v>010-7885-8849</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5704,7 +5861,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5892-1800</v>
+        <v>010-1154-5606</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5726,14 +5883,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2081-3111</v>
+        <v>010-5487-2727</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5748,14 +5905,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7080-7568</v>
+        <v>010-6630-4503</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5770,14 +5927,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-6111-2651</v>
+        <v>010-3206-2892</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5792,14 +5949,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5473-8057</v>
+        <v>010-7668-9524</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5814,7 +5971,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7514-8834</v>
+        <v>010-4933-1789</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5836,14 +5993,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6456-7328</v>
+        <v>010-5318-8118</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5858,7 +6015,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6509-9003</v>
+        <v>010-8406-1953</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5880,14 +6037,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4141-8692</v>
+        <v>010-2878-9561</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5902,14 +6059,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9728-5429</v>
+        <v>010-1460-3598</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5924,14 +6081,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5772-8590</v>
+        <v>010-4983-8219</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5946,14 +6103,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1024-5574</v>
+        <v>010-3905-1373</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5968,14 +6125,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2227-0088</v>
+        <v>010-0139-0255</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5990,14 +6147,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3623-6478</v>
+        <v>010-3388-4839</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -6012,14 +6169,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4269-1177</v>
+        <v>010-0611-1818</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -6034,14 +6191,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9988-1487</v>
+        <v>010-2016-7375</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -6056,7 +6213,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7519-0880</v>
+        <v>010-5687-4121</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
@@ -6078,7 +6235,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1099-2925</v>
+        <v>010-8796-9796</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -6100,14 +6257,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0388-7522</v>
+        <v>010-6723-6546</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6122,14 +6279,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4913-0047</v>
+        <v>010-8183-3231</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6144,7 +6301,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5487-8594</v>
+        <v>010-6590-1198</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -6166,7 +6323,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2439-6975</v>
+        <v>010-6413-5717</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -6188,14 +6345,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2453-2246</v>
+        <v>010-9360-9307</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6210,7 +6367,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8170-6710</v>
+        <v>010-9044-9858</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6232,14 +6389,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7327-5020</v>
+        <v>010-0721-0876</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6254,7 +6411,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7732-1108</v>
+        <v>010-3749-6072</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -6276,7 +6433,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1069-2486</v>
+        <v>010-0273-2768</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -6298,7 +6455,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5386-7450</v>
+        <v>010-5675-0530</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -6320,14 +6477,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7869-6948</v>
+        <v>010-1542-6292</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6342,14 +6499,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0446-0659</v>
+        <v>010-9323-8110</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6364,14 +6521,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4139-6587</v>
+        <v>010-2965-9005</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -6386,14 +6543,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9685-1481</v>
+        <v>010-4850-3529</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6408,14 +6565,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8579-5184</v>
+        <v>010-9200-6286</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6430,7 +6587,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4122-4075</v>
+        <v>010-7871-0107</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -6452,14 +6609,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2195-4768</v>
+        <v>010-7252-8772</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6474,14 +6631,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3857-5107</v>
+        <v>010-7351-3176</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6496,14 +6653,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8068-3792</v>
+        <v>010-1330-1452</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6518,14 +6675,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0497-7919</v>
+        <v>010-5782-7075</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6582,23 +6739,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6606,24 +6763,24 @@
         <v>400</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>99</v>
+        <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>80</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6632,23 +6789,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6657,23 +6814,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6682,23 +6839,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6707,23 +6864,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6732,23 +6889,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6757,23 +6914,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6782,23 +6939,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6807,23 +6964,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
         <v>84</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6832,23 +6989,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6857,23 +7014,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,23 +7039,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6907,23 +7064,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6932,23 +7089,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6957,23 +7114,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6982,23 +7139,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7007,23 +7164,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7032,23 +7189,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7057,23 +7214,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7082,23 +7239,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7107,23 +7264,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7136,19 +7293,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7157,23 +7314,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7182,23 +7339,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7207,23 +7364,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7232,23 +7389,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7257,23 +7414,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7282,23 +7439,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7307,7 +7464,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
@@ -7315,15 +7472,15 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7332,23 +7489,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7357,23 +7514,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7382,23 +7539,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7407,23 +7564,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,23 +7589,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
         <v>70</v>
       </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7457,23 +7614,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7482,23 +7639,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7507,23 +7664,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7532,23 +7689,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7557,23 +7714,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,19 +7743,19 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7607,23 +7764,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7632,23 +7789,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7657,23 +7814,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7682,23 +7839,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7707,23 +7864,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7732,23 +7889,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7757,23 +7914,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,23 +7939,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7807,23 +7964,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7832,23 +7989,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7857,23 +8014,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7882,15 +8039,15 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
@@ -7898,7 +8055,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7907,23 +8064,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7932,23 +8089,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7957,23 +8114,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7982,23 +8139,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8007,23 +8164,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8032,23 +8189,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8057,23 +8214,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8082,23 +8239,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8107,23 +8264,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8132,23 +8289,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8157,23 +8314,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8182,23 +8339,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8207,23 +8364,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8232,23 +8389,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8257,19 +8414,19 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
@@ -8282,23 +8439,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8307,23 +8464,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8336,19 +8493,19 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8357,23 +8514,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8382,15 +8539,15 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
@@ -8398,7 +8555,7 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8407,23 +8564,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8432,23 +8589,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8457,23 +8614,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8482,23 +8639,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8507,23 +8664,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8532,23 +8689,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8557,23 +8714,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8582,23 +8739,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8607,23 +8764,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8632,23 +8789,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8657,23 +8814,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8682,23 +8839,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8707,23 +8864,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8732,23 +8889,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8757,23 +8914,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8782,23 +8939,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8807,23 +8964,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8832,23 +8989,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8857,23 +9014,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8882,23 +9039,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8907,23 +9064,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8932,23 +9089,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8957,23 +9114,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8982,23 +9139,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9007,23 +9164,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9032,23 +9189,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9057,23 +9214,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
